--- a/po_analysis_by_asin/B0926ZVM75_po_data.xlsx
+++ b/po_analysis_by_asin/B0926ZVM75_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,177 +452,433 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45320</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45327</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45334</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45341</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45348</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45362</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45369</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45376</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>166</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45383</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45390</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45397</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45404</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45411</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45418</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45425</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45432</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45439</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45446</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>280</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45453</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>234</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45467</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45474</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B55" t="n">
         <v>18</v>
       </c>
     </row>
@@ -637,7 +893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,57 +915,137 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>78</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>354</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>578</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B18" t="n">
         <v>18</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0926ZVM75_po_data.xlsx
+++ b/po_analysis_by_asin/B0926ZVM75_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -909,7 +910,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1047,6 +1048,915 @@
       </c>
       <c r="B18" t="n">
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-30.82489964150079</v>
+      </c>
+      <c r="D2" t="n">
+        <v>110.860198753939</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-30.58169464737276</v>
+      </c>
+      <c r="D3" t="n">
+        <v>111.915816935472</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>41</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-26.23393016614036</v>
+      </c>
+      <c r="D4" t="n">
+        <v>113.3065420326323</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>41</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-28.88891929989689</v>
+      </c>
+      <c r="D5" t="n">
+        <v>109.6377313473079</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>42</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-34.81438602933826</v>
+      </c>
+      <c r="D6" t="n">
+        <v>107.039772393539</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>42</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-30.81785193323224</v>
+      </c>
+      <c r="D7" t="n">
+        <v>111.846218040366</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>42</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-25.93653420064123</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114.2106436497017</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>43</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-29.13439334598195</v>
+      </c>
+      <c r="D9" t="n">
+        <v>113.0744580461784</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>43</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-26.53649499889476</v>
+      </c>
+      <c r="D10" t="n">
+        <v>117.2953350653041</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>44</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-22.79285479548531</v>
+      </c>
+      <c r="D11" t="n">
+        <v>116.4299331115956</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>44</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-29.43728527666126</v>
+      </c>
+      <c r="D12" t="n">
+        <v>116.5003620172387</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>45</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-26.99599939716085</v>
+      </c>
+      <c r="D13" t="n">
+        <v>118.5549337041242</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>45</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-31.43991712028832</v>
+      </c>
+      <c r="D14" t="n">
+        <v>118.4804417021925</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>46</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-23.78717976945219</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.0482354369278</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>46</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-28.64693345832285</v>
+      </c>
+      <c r="D16" t="n">
+        <v>117.1568378492987</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>47</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-22.72451311010984</v>
+      </c>
+      <c r="D17" t="n">
+        <v>121.5956783069951</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>48</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-18.43717465063113</v>
+      </c>
+      <c r="D18" t="n">
+        <v>122.243403485528</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>50</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-17.31738422171821</v>
+      </c>
+      <c r="D19" t="n">
+        <v>117.5456022175325</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>50</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-23.51317841439075</v>
+      </c>
+      <c r="D20" t="n">
+        <v>120.705960742837</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>51</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-15.23565879881549</v>
+      </c>
+      <c r="D21" t="n">
+        <v>124.8067414821417</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>51</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-26.21542735192154</v>
+      </c>
+      <c r="D22" t="n">
+        <v>120.020307095137</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>52</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-14.76484338134119</v>
+      </c>
+      <c r="D23" t="n">
+        <v>131.4420312822379</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>52</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-19.75311440627431</v>
+      </c>
+      <c r="D24" t="n">
+        <v>119.8141697830656</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>53</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-12.67644226329958</v>
+      </c>
+      <c r="D25" t="n">
+        <v>129.8048217613804</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-12.50966484162058</v>
+      </c>
+      <c r="D26" t="n">
+        <v>124.6132892953567</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>54</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-17.96917796479744</v>
+      </c>
+      <c r="D27" t="n">
+        <v>119.8917534691967</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>54</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-21.08453352682723</v>
+      </c>
+      <c r="D28" t="n">
+        <v>122.7711739014729</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>54</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-18.17755110805568</v>
+      </c>
+      <c r="D29" t="n">
+        <v>125.7890042100544</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>55</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-18.13894876170649</v>
+      </c>
+      <c r="D30" t="n">
+        <v>122.158879355386</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>55</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-16.83264079381767</v>
+      </c>
+      <c r="D31" t="n">
+        <v>126.2600690277198</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>57</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-17.5434645998545</v>
+      </c>
+      <c r="D32" t="n">
+        <v>124.9362493215332</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>57</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-14.29517729955733</v>
+      </c>
+      <c r="D33" t="n">
+        <v>130.4812595395415</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>64</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-4.951923157551171</v>
+      </c>
+      <c r="D34" t="n">
+        <v>139.3415850762068</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>65</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-4.803134135017014</v>
+      </c>
+      <c r="D35" t="n">
+        <v>134.4411174424604</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>65</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-6.141167445044593</v>
+      </c>
+      <c r="D36" t="n">
+        <v>133.0680852446802</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>66</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-8.042287769400726</v>
+      </c>
+      <c r="D37" t="n">
+        <v>138.8853232137352</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>66</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-2.404310630490277</v>
+      </c>
+      <c r="D38" t="n">
+        <v>138.3105127736381</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>66</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-2.819437739543666</v>
+      </c>
+      <c r="D39" t="n">
+        <v>143.7499237878786</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>67</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-7.352321158427998</v>
+      </c>
+      <c r="D40" t="n">
+        <v>134.2658249948236</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>67</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-2.742576785036615</v>
+      </c>
+      <c r="D41" t="n">
+        <v>141.2158994413382</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>68</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-1.372294356795322</v>
+      </c>
+      <c r="D42" t="n">
+        <v>140.7271394426978</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>68</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-5.820618919908936</v>
+      </c>
+      <c r="D43" t="n">
+        <v>140.8662110598268</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>69</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-1.551243646869513</v>
+      </c>
+      <c r="D44" t="n">
+        <v>144.9345018519177</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>69</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.440522863209473</v>
+      </c>
+      <c r="D45" t="n">
+        <v>141.2112968644784</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>70</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.2574259613025036</v>
+      </c>
+      <c r="D46" t="n">
+        <v>143.2534833486828</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>70</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.006328087207765</v>
+      </c>
+      <c r="D47" t="n">
+        <v>144.3039523110061</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>71</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-2.709415749526417</v>
+      </c>
+      <c r="D48" t="n">
+        <v>136.3882770023962</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>71</v>
+      </c>
+      <c r="C49" t="n">
+        <v>5.064541950115506</v>
+      </c>
+      <c r="D49" t="n">
+        <v>144.5037600953541</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>72</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-6.118937641094393</v>
+      </c>
+      <c r="D50" t="n">
+        <v>147.5364477850792</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>72</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2.381186139739826</v>
+      </c>
+      <c r="D51" t="n">
+        <v>144.705658472818</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>72</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.123092651555796</v>
+      </c>
+      <c r="D52" t="n">
+        <v>144.5502626049094</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>73</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-0.5203514309765701</v>
+      </c>
+      <c r="D53" t="n">
+        <v>136.3507910308162</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>74</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-3.84233643808161</v>
+      </c>
+      <c r="D54" t="n">
+        <v>142.7523554768917</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>74</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.2814707206775453</v>
+      </c>
+      <c r="D55" t="n">
+        <v>144.2907720881093</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>75</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-0.4276625458800993</v>
+      </c>
+      <c r="D56" t="n">
+        <v>150.2601989737515</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>75</v>
+      </c>
+      <c r="C57" t="n">
+        <v>5.551893758223804</v>
+      </c>
+      <c r="D57" t="n">
+        <v>143.3468891675638</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>76</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5.915317765357439</v>
+      </c>
+      <c r="D58" t="n">
+        <v>148.4761662090118</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>76</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8.844642656173002</v>
+      </c>
+      <c r="D59" t="n">
+        <v>143.4257173773262</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>77</v>
+      </c>
+      <c r="C60" t="n">
+        <v>10.74596818665042</v>
+      </c>
+      <c r="D60" t="n">
+        <v>145.6415640491038</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>77</v>
+      </c>
+      <c r="C61" t="n">
+        <v>7.396504740104472</v>
+      </c>
+      <c r="D61" t="n">
+        <v>145.3672213772278</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>78</v>
+      </c>
+      <c r="C62" t="n">
+        <v>10.80321739083858</v>
+      </c>
+      <c r="D62" t="n">
+        <v>145.6254924396109</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>78</v>
+      </c>
+      <c r="C63" t="n">
+        <v>5.429027508600855</v>
+      </c>
+      <c r="D63" t="n">
+        <v>148.3518632999728</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0926ZVM75_po_data.xlsx
+++ b/po_analysis_by_asin/B0926ZVM75_po_data.xlsx
@@ -1061,7 +1061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1080,16 +1080,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1098,12 +1088,6 @@
       <c r="B2" t="n">
         <v>40</v>
       </c>
-      <c r="C2" t="n">
-        <v>-30.82489964150079</v>
-      </c>
-      <c r="D2" t="n">
-        <v>110.860198753939</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1112,12 +1096,6 @@
       <c r="B3" t="n">
         <v>40</v>
       </c>
-      <c r="C3" t="n">
-        <v>-30.58169464737276</v>
-      </c>
-      <c r="D3" t="n">
-        <v>111.915816935472</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1126,12 +1104,6 @@
       <c r="B4" t="n">
         <v>41</v>
       </c>
-      <c r="C4" t="n">
-        <v>-26.23393016614036</v>
-      </c>
-      <c r="D4" t="n">
-        <v>113.3065420326323</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1140,12 +1112,6 @@
       <c r="B5" t="n">
         <v>41</v>
       </c>
-      <c r="C5" t="n">
-        <v>-28.88891929989689</v>
-      </c>
-      <c r="D5" t="n">
-        <v>109.6377313473079</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1154,12 +1120,6 @@
       <c r="B6" t="n">
         <v>42</v>
       </c>
-      <c r="C6" t="n">
-        <v>-34.81438602933826</v>
-      </c>
-      <c r="D6" t="n">
-        <v>107.039772393539</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1168,12 +1128,6 @@
       <c r="B7" t="n">
         <v>42</v>
       </c>
-      <c r="C7" t="n">
-        <v>-30.81785193323224</v>
-      </c>
-      <c r="D7" t="n">
-        <v>111.846218040366</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1182,12 +1136,6 @@
       <c r="B8" t="n">
         <v>42</v>
       </c>
-      <c r="C8" t="n">
-        <v>-25.93653420064123</v>
-      </c>
-      <c r="D8" t="n">
-        <v>114.2106436497017</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1196,12 +1144,6 @@
       <c r="B9" t="n">
         <v>43</v>
       </c>
-      <c r="C9" t="n">
-        <v>-29.13439334598195</v>
-      </c>
-      <c r="D9" t="n">
-        <v>113.0744580461784</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1210,12 +1152,6 @@
       <c r="B10" t="n">
         <v>43</v>
       </c>
-      <c r="C10" t="n">
-        <v>-26.53649499889476</v>
-      </c>
-      <c r="D10" t="n">
-        <v>117.2953350653041</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1224,12 +1160,6 @@
       <c r="B11" t="n">
         <v>44</v>
       </c>
-      <c r="C11" t="n">
-        <v>-22.79285479548531</v>
-      </c>
-      <c r="D11" t="n">
-        <v>116.4299331115956</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1238,12 +1168,6 @@
       <c r="B12" t="n">
         <v>44</v>
       </c>
-      <c r="C12" t="n">
-        <v>-29.43728527666126</v>
-      </c>
-      <c r="D12" t="n">
-        <v>116.5003620172387</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1252,12 +1176,6 @@
       <c r="B13" t="n">
         <v>45</v>
       </c>
-      <c r="C13" t="n">
-        <v>-26.99599939716085</v>
-      </c>
-      <c r="D13" t="n">
-        <v>118.5549337041242</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1266,12 +1184,6 @@
       <c r="B14" t="n">
         <v>45</v>
       </c>
-      <c r="C14" t="n">
-        <v>-31.43991712028832</v>
-      </c>
-      <c r="D14" t="n">
-        <v>118.4804417021925</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1280,12 +1192,6 @@
       <c r="B15" t="n">
         <v>46</v>
       </c>
-      <c r="C15" t="n">
-        <v>-23.78717976945219</v>
-      </c>
-      <c r="D15" t="n">
-        <v>116.0482354369278</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1294,12 +1200,6 @@
       <c r="B16" t="n">
         <v>46</v>
       </c>
-      <c r="C16" t="n">
-        <v>-28.64693345832285</v>
-      </c>
-      <c r="D16" t="n">
-        <v>117.1568378492987</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1308,12 +1208,6 @@
       <c r="B17" t="n">
         <v>47</v>
       </c>
-      <c r="C17" t="n">
-        <v>-22.72451311010984</v>
-      </c>
-      <c r="D17" t="n">
-        <v>121.5956783069951</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1322,12 +1216,6 @@
       <c r="B18" t="n">
         <v>48</v>
       </c>
-      <c r="C18" t="n">
-        <v>-18.43717465063113</v>
-      </c>
-      <c r="D18" t="n">
-        <v>122.243403485528</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1336,12 +1224,6 @@
       <c r="B19" t="n">
         <v>50</v>
       </c>
-      <c r="C19" t="n">
-        <v>-17.31738422171821</v>
-      </c>
-      <c r="D19" t="n">
-        <v>117.5456022175325</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1350,12 +1232,6 @@
       <c r="B20" t="n">
         <v>50</v>
       </c>
-      <c r="C20" t="n">
-        <v>-23.51317841439075</v>
-      </c>
-      <c r="D20" t="n">
-        <v>120.705960742837</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1364,12 +1240,6 @@
       <c r="B21" t="n">
         <v>51</v>
       </c>
-      <c r="C21" t="n">
-        <v>-15.23565879881549</v>
-      </c>
-      <c r="D21" t="n">
-        <v>124.8067414821417</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1378,12 +1248,6 @@
       <c r="B22" t="n">
         <v>51</v>
       </c>
-      <c r="C22" t="n">
-        <v>-26.21542735192154</v>
-      </c>
-      <c r="D22" t="n">
-        <v>120.020307095137</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1392,12 +1256,6 @@
       <c r="B23" t="n">
         <v>52</v>
       </c>
-      <c r="C23" t="n">
-        <v>-14.76484338134119</v>
-      </c>
-      <c r="D23" t="n">
-        <v>131.4420312822379</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1406,12 +1264,6 @@
       <c r="B24" t="n">
         <v>52</v>
       </c>
-      <c r="C24" t="n">
-        <v>-19.75311440627431</v>
-      </c>
-      <c r="D24" t="n">
-        <v>119.8141697830656</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1420,12 +1272,6 @@
       <c r="B25" t="n">
         <v>53</v>
       </c>
-      <c r="C25" t="n">
-        <v>-12.67644226329958</v>
-      </c>
-      <c r="D25" t="n">
-        <v>129.8048217613804</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1434,12 +1280,6 @@
       <c r="B26" t="n">
         <v>53</v>
       </c>
-      <c r="C26" t="n">
-        <v>-12.50966484162058</v>
-      </c>
-      <c r="D26" t="n">
-        <v>124.6132892953567</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1448,12 +1288,6 @@
       <c r="B27" t="n">
         <v>54</v>
       </c>
-      <c r="C27" t="n">
-        <v>-17.96917796479744</v>
-      </c>
-      <c r="D27" t="n">
-        <v>119.8917534691967</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1462,12 +1296,6 @@
       <c r="B28" t="n">
         <v>54</v>
       </c>
-      <c r="C28" t="n">
-        <v>-21.08453352682723</v>
-      </c>
-      <c r="D28" t="n">
-        <v>122.7711739014729</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1476,12 +1304,6 @@
       <c r="B29" t="n">
         <v>54</v>
       </c>
-      <c r="C29" t="n">
-        <v>-18.17755110805568</v>
-      </c>
-      <c r="D29" t="n">
-        <v>125.7890042100544</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1490,12 +1312,6 @@
       <c r="B30" t="n">
         <v>55</v>
       </c>
-      <c r="C30" t="n">
-        <v>-18.13894876170649</v>
-      </c>
-      <c r="D30" t="n">
-        <v>122.158879355386</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1504,12 +1320,6 @@
       <c r="B31" t="n">
         <v>55</v>
       </c>
-      <c r="C31" t="n">
-        <v>-16.83264079381767</v>
-      </c>
-      <c r="D31" t="n">
-        <v>126.2600690277198</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1518,12 +1328,6 @@
       <c r="B32" t="n">
         <v>57</v>
       </c>
-      <c r="C32" t="n">
-        <v>-17.5434645998545</v>
-      </c>
-      <c r="D32" t="n">
-        <v>124.9362493215332</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1532,12 +1336,6 @@
       <c r="B33" t="n">
         <v>57</v>
       </c>
-      <c r="C33" t="n">
-        <v>-14.29517729955733</v>
-      </c>
-      <c r="D33" t="n">
-        <v>130.4812595395415</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1546,12 +1344,6 @@
       <c r="B34" t="n">
         <v>64</v>
       </c>
-      <c r="C34" t="n">
-        <v>-4.951923157551171</v>
-      </c>
-      <c r="D34" t="n">
-        <v>139.3415850762068</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1560,12 +1352,6 @@
       <c r="B35" t="n">
         <v>65</v>
       </c>
-      <c r="C35" t="n">
-        <v>-4.803134135017014</v>
-      </c>
-      <c r="D35" t="n">
-        <v>134.4411174424604</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1574,12 +1360,6 @@
       <c r="B36" t="n">
         <v>65</v>
       </c>
-      <c r="C36" t="n">
-        <v>-6.141167445044593</v>
-      </c>
-      <c r="D36" t="n">
-        <v>133.0680852446802</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1588,12 +1368,6 @@
       <c r="B37" t="n">
         <v>66</v>
       </c>
-      <c r="C37" t="n">
-        <v>-8.042287769400726</v>
-      </c>
-      <c r="D37" t="n">
-        <v>138.8853232137352</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1602,12 +1376,6 @@
       <c r="B38" t="n">
         <v>66</v>
       </c>
-      <c r="C38" t="n">
-        <v>-2.404310630490277</v>
-      </c>
-      <c r="D38" t="n">
-        <v>138.3105127736381</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1616,12 +1384,6 @@
       <c r="B39" t="n">
         <v>66</v>
       </c>
-      <c r="C39" t="n">
-        <v>-2.819437739543666</v>
-      </c>
-      <c r="D39" t="n">
-        <v>143.7499237878786</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1630,12 +1392,6 @@
       <c r="B40" t="n">
         <v>67</v>
       </c>
-      <c r="C40" t="n">
-        <v>-7.352321158427998</v>
-      </c>
-      <c r="D40" t="n">
-        <v>134.2658249948236</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1644,12 +1400,6 @@
       <c r="B41" t="n">
         <v>67</v>
       </c>
-      <c r="C41" t="n">
-        <v>-2.742576785036615</v>
-      </c>
-      <c r="D41" t="n">
-        <v>141.2158994413382</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1658,12 +1408,6 @@
       <c r="B42" t="n">
         <v>68</v>
       </c>
-      <c r="C42" t="n">
-        <v>-1.372294356795322</v>
-      </c>
-      <c r="D42" t="n">
-        <v>140.7271394426978</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1672,12 +1416,6 @@
       <c r="B43" t="n">
         <v>68</v>
       </c>
-      <c r="C43" t="n">
-        <v>-5.820618919908936</v>
-      </c>
-      <c r="D43" t="n">
-        <v>140.8662110598268</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1686,12 +1424,6 @@
       <c r="B44" t="n">
         <v>69</v>
       </c>
-      <c r="C44" t="n">
-        <v>-1.551243646869513</v>
-      </c>
-      <c r="D44" t="n">
-        <v>144.9345018519177</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1700,12 +1432,6 @@
       <c r="B45" t="n">
         <v>69</v>
       </c>
-      <c r="C45" t="n">
-        <v>1.440522863209473</v>
-      </c>
-      <c r="D45" t="n">
-        <v>141.2112968644784</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1714,12 +1440,6 @@
       <c r="B46" t="n">
         <v>70</v>
       </c>
-      <c r="C46" t="n">
-        <v>-0.2574259613025036</v>
-      </c>
-      <c r="D46" t="n">
-        <v>143.2534833486828</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1728,12 +1448,6 @@
       <c r="B47" t="n">
         <v>70</v>
       </c>
-      <c r="C47" t="n">
-        <v>1.006328087207765</v>
-      </c>
-      <c r="D47" t="n">
-        <v>144.3039523110061</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1742,12 +1456,6 @@
       <c r="B48" t="n">
         <v>71</v>
       </c>
-      <c r="C48" t="n">
-        <v>-2.709415749526417</v>
-      </c>
-      <c r="D48" t="n">
-        <v>136.3882770023962</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1756,12 +1464,6 @@
       <c r="B49" t="n">
         <v>71</v>
       </c>
-      <c r="C49" t="n">
-        <v>5.064541950115506</v>
-      </c>
-      <c r="D49" t="n">
-        <v>144.5037600953541</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1770,12 +1472,6 @@
       <c r="B50" t="n">
         <v>72</v>
       </c>
-      <c r="C50" t="n">
-        <v>-6.118937641094393</v>
-      </c>
-      <c r="D50" t="n">
-        <v>147.5364477850792</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1784,12 +1480,6 @@
       <c r="B51" t="n">
         <v>72</v>
       </c>
-      <c r="C51" t="n">
-        <v>2.381186139739826</v>
-      </c>
-      <c r="D51" t="n">
-        <v>144.705658472818</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1798,12 +1488,6 @@
       <c r="B52" t="n">
         <v>72</v>
       </c>
-      <c r="C52" t="n">
-        <v>1.123092651555796</v>
-      </c>
-      <c r="D52" t="n">
-        <v>144.5502626049094</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1812,12 +1496,6 @@
       <c r="B53" t="n">
         <v>73</v>
       </c>
-      <c r="C53" t="n">
-        <v>-0.5203514309765701</v>
-      </c>
-      <c r="D53" t="n">
-        <v>136.3507910308162</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1826,12 +1504,6 @@
       <c r="B54" t="n">
         <v>74</v>
       </c>
-      <c r="C54" t="n">
-        <v>-3.84233643808161</v>
-      </c>
-      <c r="D54" t="n">
-        <v>142.7523554768917</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1840,12 +1512,6 @@
       <c r="B55" t="n">
         <v>74</v>
       </c>
-      <c r="C55" t="n">
-        <v>0.2814707206775453</v>
-      </c>
-      <c r="D55" t="n">
-        <v>144.2907720881093</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1854,12 +1520,6 @@
       <c r="B56" t="n">
         <v>75</v>
       </c>
-      <c r="C56" t="n">
-        <v>-0.4276625458800993</v>
-      </c>
-      <c r="D56" t="n">
-        <v>150.2601989737515</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1868,12 +1528,6 @@
       <c r="B57" t="n">
         <v>75</v>
       </c>
-      <c r="C57" t="n">
-        <v>5.551893758223804</v>
-      </c>
-      <c r="D57" t="n">
-        <v>143.3468891675638</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1882,12 +1536,6 @@
       <c r="B58" t="n">
         <v>76</v>
       </c>
-      <c r="C58" t="n">
-        <v>5.915317765357439</v>
-      </c>
-      <c r="D58" t="n">
-        <v>148.4761662090118</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1896,12 +1544,6 @@
       <c r="B59" t="n">
         <v>76</v>
       </c>
-      <c r="C59" t="n">
-        <v>8.844642656173002</v>
-      </c>
-      <c r="D59" t="n">
-        <v>143.4257173773262</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1910,12 +1552,6 @@
       <c r="B60" t="n">
         <v>77</v>
       </c>
-      <c r="C60" t="n">
-        <v>10.74596818665042</v>
-      </c>
-      <c r="D60" t="n">
-        <v>145.6415640491038</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1924,12 +1560,6 @@
       <c r="B61" t="n">
         <v>77</v>
       </c>
-      <c r="C61" t="n">
-        <v>7.396504740104472</v>
-      </c>
-      <c r="D61" t="n">
-        <v>145.3672213772278</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -1938,12 +1568,6 @@
       <c r="B62" t="n">
         <v>78</v>
       </c>
-      <c r="C62" t="n">
-        <v>10.80321739083858</v>
-      </c>
-      <c r="D62" t="n">
-        <v>145.6254924396109</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -1951,12 +1575,6 @@
       </c>
       <c r="B63" t="n">
         <v>78</v>
-      </c>
-      <c r="C63" t="n">
-        <v>5.429027508600855</v>
-      </c>
-      <c r="D63" t="n">
-        <v>148.3518632999728</v>
       </c>
     </row>
   </sheetData>
